--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020603D0-5B69-4235-B9F7-F05C8B31A963}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -149,12 +148,15 @@
   </si>
   <si>
     <t>NGC-1607</t>
+  </si>
+  <si>
+    <t>0.329</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -288,6 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,8 +694,8 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.39300000000000002</v>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>32</v>
@@ -704,10 +707,10 @@
         <v>33</v>
       </c>
       <c r="J8" s="3">
-        <v>0.46899999999999997</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="K8" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E869E-8A1C-4935-AE0C-755F45D5F473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417F54CB-85E7-41EF-B5A6-BE4B741CA8A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Color Codes</t>
   </si>
@@ -151,12 +146,18 @@
   </si>
   <si>
     <t>0.329</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,13 +285,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,29 +592,30 @@
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="19.5546875" customWidth="1"/>
     <col min="10" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -622,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -634,16 +639,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -677,8 +682,11 @@
       <c r="K7" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -694,7 +702,7 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -711,6 +719,9 @@
       </c>
       <c r="K8" s="3">
         <v>0.32900000000000001</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -840,5 +851,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417F54CB-85E7-41EF-B5A6-BE4B741CA8A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -151,13 +150,13 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>Main Processor 24V (A)</t>
+    <t>24V Rail(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,14 +285,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,11 +573,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,12 +595,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -610,10 +609,10 @@
       <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -720,7 +719,7 @@
       <c r="K8" s="3">
         <v>0.32900000000000001</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -735,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Loop_Cards.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF849A7B-BC0C-4942-A389-C02F1D9D16B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Color Codes</t>
   </si>
@@ -144,19 +153,31 @@
     <t>NGC-1607</t>
   </si>
   <si>
-    <t>0.329</t>
-  </si>
-  <si>
     <t>Loading Details Name</t>
   </si>
   <si>
     <t>24V Rail(A)</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>MZX252</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>XLM800-Zetfas-C</t>
+  </si>
+  <si>
+    <t>XLM800-Zetfas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,11 +594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +703,7 @@
         <v>35</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -702,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>32</v>
@@ -714,13 +735,51 @@
         <v>33</v>
       </c>
       <c r="J8" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="K8" s="3">
-        <v>0.32900000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
